--- a/3.Subir_datos/3.Tasa_usura/Tasa_usura.xlsx
+++ b/3.Subir_datos/3.Tasa_usura/Tasa_usura.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Documents\GitHub\2025\Agente_Libranza\3.SubirData\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Documents\GitHub\2025\Agente_simuldor_libranza\Agente_simuldor_libranza\3.Subir_datos\3.Tasa_usura\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -382,9 +382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2522,6 +2524,21 @@
         <v>1.8619719999999999E-2</v>
       </c>
     </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45900</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="D153" s="4">
+        <f>NOMINAL(C153,12)/12</f>
+        <v>1.8884653730303347E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
